--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1866.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1866.xlsx
@@ -360,7 +360,7 @@
         <v>1.188116004411219</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1866.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1866.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1671233145950441</v>
+        <v>1.745259523391724</v>
       </c>
       <c r="B1">
-        <v>0.209466125249489</v>
+        <v>2.630134105682373</v>
       </c>
       <c r="C1">
-        <v>0.3023158595452973</v>
+        <v>2.617287397384644</v>
       </c>
       <c r="D1">
-        <v>1.188116004411219</v>
+        <v>2.701791048049927</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>3.400125503540039</v>
       </c>
     </row>
   </sheetData>
